--- a/Monthly/Ljung_Box/First Difference/Nippon_tel.xlsx
+++ b/Monthly/Ljung_Box/First Difference/Nippon_tel.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.055979682132819E-05</v>
+        <v>0.1561508392327847</v>
+      </c>
+      <c r="C2">
+        <v>0.6927253583259942</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0237565923909617</v>
+        <v>0.5209067538912082</v>
+      </c>
+      <c r="C3">
+        <v>0.770702088023796</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.357484754370322</v>
+        <v>0.5399043665143592</v>
       </c>
       <c r="C4">
-        <v>0.5499064677177173</v>
+        <v>0.9100410943271932</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.358443746604056</v>
+        <v>0.5968297668061726</v>
       </c>
       <c r="C5">
-        <v>0.8359204103985804</v>
+        <v>0.9634153195452441</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.3630118909624858</v>
+        <v>0.6108912870336267</v>
       </c>
       <c r="C6">
-        <v>0.947772773962032</v>
+        <v>0.9874991511342042</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8639226453428596</v>
+        <v>0.6110160424870956</v>
       </c>
       <c r="C7">
-        <v>0.9296786745209565</v>
+        <v>0.9962140122005605</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8833826991191431</v>
+        <v>0.6110414163585957</v>
       </c>
       <c r="C8">
-        <v>0.9714129911427156</v>
+        <v>0.9989298468005484</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3.680505229272321</v>
+        <v>1.164535076213151</v>
       </c>
       <c r="C9">
-        <v>0.7198197138423851</v>
+        <v>0.9969799917734342</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4.254646513933861</v>
+        <v>1.951704840541561</v>
       </c>
       <c r="C10">
-        <v>0.7500243369867683</v>
+        <v>0.9922084810726609</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4.723377236570113</v>
+        <v>1.975214421396638</v>
       </c>
       <c r="C11">
-        <v>0.7866912857384813</v>
+        <v>0.9965266068049292</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.263377833977179</v>
+        <v>3.266708774255598</v>
       </c>
       <c r="C12">
-        <v>0.6097187796195632</v>
+        <v>0.9867107834062532</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.287209835840166</v>
+        <v>3.281429840478223</v>
       </c>
       <c r="C13">
-        <v>0.6980807967629789</v>
+        <v>0.9932098361486377</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.302782529285718</v>
+        <v>3.679701376730376</v>
       </c>
       <c r="C14">
-        <v>0.7740602709069643</v>
+        <v>0.9941458342988818</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.398069188307406</v>
+        <v>3.753621568496931</v>
       </c>
       <c r="C15">
-        <v>0.8302261981786649</v>
+        <v>0.9967748801454092</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7.755722373588665</v>
+        <v>3.849148524503462</v>
       </c>
       <c r="C16">
-        <v>0.8591422406371328</v>
+        <v>0.9981907732931555</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.926455090986883</v>
+        <v>3.923908858694409</v>
       </c>
       <c r="C17">
-        <v>0.8931222212009305</v>
+        <v>0.9990279688001797</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>8.050879803841038</v>
+        <v>3.954031334800882</v>
       </c>
       <c r="C18">
-        <v>0.9217266574764996</v>
+        <v>0.9995218060445475</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>8.127353035660079</v>
+        <v>3.972284408539974</v>
       </c>
       <c r="C19">
-        <v>0.9449842232073172</v>
+        <v>0.9997742154160764</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>10.1328118955289</v>
+        <v>5.213003777320074</v>
       </c>
       <c r="C20">
-        <v>0.8979485526449305</v>
+        <v>0.999230043529628</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>10.13589682163052</v>
+        <v>5.223804954852977</v>
       </c>
       <c r="C21">
-        <v>0.9273802868376737</v>
+        <v>0.9996109253017408</v>
       </c>
     </row>
   </sheetData>
